--- a/medicine/Psychotrope/Tsuda_Sōgyū/Tsuda_Sōgyū.xlsx
+++ b/medicine/Psychotrope/Tsuda_Sōgyū/Tsuda_Sōgyū.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tsuda_S%C5%8Dgy%C5%AB</t>
+          <t>Tsuda_Sōgyū</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tsuda Sōgyū (津田 宗及?, mort en 1591) est un membre de l'influente famille de marchands de Sakai dont le nom commerçant est Tennōjiya. Avec son père, Tsuda Sōtatsu, il fait des Tennōjiya l'une des maisons de commerce les plus prospères de Sakai. Il réussit cela en gagnant la confiance d'Oda Nobunaga, qui est alors sur la voie du pouvoir.
 Vers 1574, il devient l'un des trois marchands-maître de thé de Sakai à être responsable du chanoyu (cérémonie du thé japonaise) pour Nobunaga, une position nommée chatō (lit. « chef du thé »). Les deux autres sont Imai Sōkyū et Sen no Rikyū. 
